--- a/graviton-cpu-test/data.xlsx
+++ b/graviton-cpu-test/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrytan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B64934-796A-9141-86D7-8D4FF899A8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6572B10-8E22-364C-BEF0-E8E9288AE3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proc stat" sheetId="9" r:id="rId1"/>
@@ -1421,6 +1421,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1488,6 +1544,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Execution time(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1999,6 +2110,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2065,6 +2236,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>vCPU utilization(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2870,6 +3101,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2937,6 +3228,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Execution time(us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3742,6 +4093,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3809,6 +4220,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Execution time(us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4614,6 +5085,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4680,6 +5211,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>vCPU utilization(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5485,6 +6072,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5551,6 +6198,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>vCPU utilization(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6356,6 +7063,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6422,6 +7189,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>vCPU utilization(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7227,6 +8054,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7294,6 +8181,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Execution time(us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8099,6 +9046,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8165,6 +9172,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>vCPU utilization(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8676,6 +9743,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads count</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8743,6 +9870,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Execution time(us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15110,8 +16297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF65BE-2470-E546-9547-4B5CB0934F4F}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AQ39" sqref="AQ39"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17246,8 +18433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327609A6-E2C0-9145-893D-C4D1E0556D39}">
   <dimension ref="B1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
